--- a/model/HARVFR Notes.xlsx
+++ b/model/HARVFR Notes.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Simon\Projects\Tiller_Persistence\basgra_nz\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WoodwardS\Documents\Projects\Tiller_Persistence\basgra_nz\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterate="1" iterateCount="5000" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>FRACTV</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Proportion of RES</t>
+  </si>
+  <si>
+    <t>HARVFR</t>
+  </si>
+  <si>
+    <t>HARVFRST</t>
+  </si>
+  <si>
+    <t>Harvested</t>
+  </si>
+  <si>
+    <t>Total Lost</t>
+  </si>
+  <si>
+    <t>height?</t>
+  </si>
+  <si>
+    <t>DISSFRST</t>
   </si>
 </sst>
 </file>
@@ -103,6 +121,1579 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HARVFR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3933-4AA9-B807-1E05346B7915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HARVFRST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25118864315095801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30924949471099167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34924996914343942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38073078774317565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40709053153690439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42997714837182993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45032847814030613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4687345823184198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48559337483020376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50118723362727224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6170338627200096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69684530193594896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7596577929323739</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81225239635623547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85791720044409492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8985234417906397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93524844782262129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96888616119726334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3933-4AA9-B807-1E05346B7915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DISSFRST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75118582410358647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80295461373492072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83269752401087049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85333693769684349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86898239982227832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88147570761931082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89180188533457794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90054929229402847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90809722904169399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91470433514100358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95399619774351896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97269990791726024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98350920185885826</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99024852886542492</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99455919664612968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99728608639581784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99891643431397803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99975414235975091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3933-4AA9-B807-1E05346B7915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>height?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50118723362727224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55610205422295611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59097374657715496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6170338627200096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63803646567959138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65572642799557035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67106518173744201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68464193730622414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69684530193594885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70794578438413791</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78551503023176428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83477260492660454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87158349739561602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90125046261083019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92623819854511236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94790476409322877</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96708244106829966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98432015177850718</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3933-4AA9-B807-1E05346B7915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="539259144"/>
+        <c:axId val="757039224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="539259144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757039224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757039224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539259144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,23 +1993,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F12"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0.9</v>
       </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -433,24 +2046,89 @@
         <f>C5-E5</f>
         <v>0.10999999999999999</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>J5^(1-$K$3)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>SQRT(K5)*(2-SQRT(K5))</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SQRT(K5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <f>J5+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K24" si="0">J6^(1-$K$3)</f>
+        <v>0.25118864315095801</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L24" si="1">SQRT(K6)*(2-SQRT(K6))</f>
+        <v>0.75118582410358647</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N24" si="2">SQRT(K6)</f>
+        <v>0.50118723362727224</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
         <v>0.8</v>
       </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J14" si="3">J6+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.30924949471099167</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.80295461373492072</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.55610205422295611</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.34924996914343942</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.83269752401087049</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.59097374657715496</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -458,8 +2136,24 @@
         <f>MAX(0,1-C6*C4/C5)</f>
         <v>0.18181818181818188</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.38073078774317565</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.85333693769684349</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.6170338627200096</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>MAX(0,1-C6/C5)</f>
         <v>9.0909090909090939E-2</v>
@@ -467,8 +2161,24 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.40709053153690439</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.86898239982227832</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.63803646567959138</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>3</v>
       </c>
@@ -479,8 +2189,24 @@
       <c r="F11" t="s">
         <v>7</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.42997714837182993</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.88147570761931082</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.65572642799557035</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -491,8 +2217,249 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.45032847814030613</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.89180188533457794</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.67106518173744201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.4687345823184198</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.90054929229402847</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.68464193730622414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.48559337483020376</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.90809722904169399</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.69684530193594885</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>J5+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.50118723362727224</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.91470433514100358</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.70794578438413791</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>J15+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.6170338627200096</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.95399619774351896</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.78551503023176428</v>
+      </c>
+    </row>
+    <row r="17" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" ref="J17:J24" si="4">J16+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.69684530193594896</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.97269990791726024</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.83477260492660454</v>
+      </c>
+    </row>
+    <row r="18" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.7596577929323739</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.98350920185885826</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0.87158349739561602</v>
+      </c>
+    </row>
+    <row r="19" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.81225239635623547</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.99024852886542492</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.90125046261083019</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.85791720044409492</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.99455919664612968</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.92623819854511236</v>
+      </c>
+    </row>
+    <row r="21" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.8985234417906397</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.99728608639581784</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.94790476409322877</v>
+      </c>
+    </row>
+    <row r="22" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.93524844782262129</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.99891643431397803</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.96708244106829966</v>
+      </c>
+    </row>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.96888616119726334</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.99975414235975091</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.98432015177850718</v>
+      </c>
+    </row>
+    <row r="24" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>